--- a/Code/Results/Cases/Case_3_217/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_217/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9922971365276498</v>
+        <v>1.021598327441391</v>
       </c>
       <c r="D2">
-        <v>1.015848976209217</v>
+        <v>1.032306816338145</v>
       </c>
       <c r="E2">
-        <v>0.999845570670573</v>
+        <v>1.02245750295812</v>
       </c>
       <c r="F2">
-        <v>1.016343905444726</v>
+        <v>1.040884514804083</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044559532753781</v>
+        <v>1.031202846778234</v>
       </c>
       <c r="J2">
-        <v>1.014710705457525</v>
+        <v>1.026788892010296</v>
       </c>
       <c r="K2">
-        <v>1.027091838566086</v>
+        <v>1.035112425782007</v>
       </c>
       <c r="L2">
-        <v>1.0113070573578</v>
+        <v>1.025291826926038</v>
       </c>
       <c r="M2">
-        <v>1.027580144402083</v>
+        <v>1.043665597723298</v>
       </c>
       <c r="N2">
-        <v>1.008922659178002</v>
+        <v>1.01300092151919</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9965285427897101</v>
+        <v>1.022487249434818</v>
       </c>
       <c r="D3">
-        <v>1.019238294087628</v>
+        <v>1.03302777819261</v>
       </c>
       <c r="E3">
-        <v>1.003188772754875</v>
+        <v>1.023209632348831</v>
       </c>
       <c r="F3">
-        <v>1.02066096046491</v>
+        <v>1.041840884720024</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045782344915314</v>
+        <v>1.031367730561927</v>
       </c>
       <c r="J3">
-        <v>1.01711429268014</v>
+        <v>1.027315817055318</v>
       </c>
       <c r="K3">
-        <v>1.029630795523122</v>
+        <v>1.035642367475331</v>
       </c>
       <c r="L3">
-        <v>1.013781014586318</v>
+        <v>1.025850775610291</v>
       </c>
       <c r="M3">
-        <v>1.031036133147111</v>
+        <v>1.044432098885888</v>
       </c>
       <c r="N3">
-        <v>1.009722907131779</v>
+        <v>1.013175609733828</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9992111968661371</v>
+        <v>1.023062751158941</v>
       </c>
       <c r="D4">
-        <v>1.021386280974021</v>
+        <v>1.0334940837698</v>
       </c>
       <c r="E4">
-        <v>1.005314462839172</v>
+        <v>1.023696983382513</v>
       </c>
       <c r="F4">
-        <v>1.023399948806691</v>
+        <v>1.042460030013461</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046542047613622</v>
+        <v>1.031472553555908</v>
       </c>
       <c r="J4">
-        <v>1.018635101853797</v>
+        <v>1.027656469080816</v>
       </c>
       <c r="K4">
-        <v>1.031233266536337</v>
+        <v>1.035984402235043</v>
       </c>
       <c r="L4">
-        <v>1.015349167370842</v>
+        <v>1.026212464552057</v>
       </c>
       <c r="M4">
-        <v>1.033223927554629</v>
+        <v>1.044927766986196</v>
       </c>
       <c r="N4">
-        <v>1.010229170661609</v>
+        <v>1.013288517074623</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.00032618053113</v>
+        <v>1.023304765068553</v>
       </c>
       <c r="D5">
-        <v>1.022278800630706</v>
+        <v>1.033690067995438</v>
       </c>
       <c r="E5">
-        <v>1.006199390865098</v>
+        <v>1.023902025385338</v>
       </c>
       <c r="F5">
-        <v>1.024538805483035</v>
+        <v>1.0427203914116</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046854017721055</v>
+        <v>1.031516173172</v>
       </c>
       <c r="J5">
-        <v>1.019266432327314</v>
+        <v>1.027799605427286</v>
       </c>
       <c r="K5">
-        <v>1.031897523817717</v>
+        <v>1.03612798340788</v>
       </c>
       <c r="L5">
-        <v>1.016000828371618</v>
+        <v>1.026364520265464</v>
       </c>
       <c r="M5">
-        <v>1.03413241311063</v>
+        <v>1.045136070385026</v>
       </c>
       <c r="N5">
-        <v>1.010439315206332</v>
+        <v>1.013335952388048</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.000512652933855</v>
+        <v>1.023345404514697</v>
       </c>
       <c r="D6">
-        <v>1.022428051966055</v>
+        <v>1.033722971593913</v>
       </c>
       <c r="E6">
-        <v>1.00634747136042</v>
+        <v>1.023936462156957</v>
       </c>
       <c r="F6">
-        <v>1.024729296614444</v>
+        <v>1.042764111456446</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046905968388057</v>
+        <v>1.031523470804728</v>
       </c>
       <c r="J6">
-        <v>1.019371971952528</v>
+        <v>1.027823634293306</v>
       </c>
       <c r="K6">
-        <v>1.032008510130229</v>
+        <v>1.036152078953427</v>
       </c>
       <c r="L6">
-        <v>1.016109806473842</v>
+        <v>1.026390051154402</v>
       </c>
       <c r="M6">
-        <v>1.034284300891794</v>
+        <v>1.045171040975883</v>
       </c>
       <c r="N6">
-        <v>1.010474443892923</v>
+        <v>1.013343915160878</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9992261450679304</v>
+        <v>1.023065984675335</v>
       </c>
       <c r="D7">
-        <v>1.021398247699418</v>
+        <v>1.033496702721584</v>
       </c>
       <c r="E7">
-        <v>1.005326321153694</v>
+        <v>1.023699722538448</v>
       </c>
       <c r="F7">
-        <v>1.023415215290399</v>
+        <v>1.042463508691373</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046546245102702</v>
+        <v>1.031473138164594</v>
       </c>
       <c r="J7">
-        <v>1.018643568923025</v>
+        <v>1.027658381966863</v>
       </c>
       <c r="K7">
-        <v>1.031242179070348</v>
+        <v>1.035986321601391</v>
       </c>
       <c r="L7">
-        <v>1.015357904426189</v>
+        <v>1.026214496322765</v>
       </c>
       <c r="M7">
-        <v>1.03323611060267</v>
+        <v>1.044930550644722</v>
       </c>
       <c r="N7">
-        <v>1.010231989088977</v>
+        <v>1.013289151029629</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9937388962612334</v>
+        <v>1.021898677950853</v>
       </c>
       <c r="D8">
-        <v>1.017003947511409</v>
+        <v>1.032550510265555</v>
       </c>
       <c r="E8">
-        <v>1.000983380151876</v>
+        <v>1.022711548355516</v>
       </c>
       <c r="F8">
-        <v>1.017814403543535</v>
+        <v>1.041207659405782</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044979405702698</v>
+        <v>1.031258956290477</v>
       </c>
       <c r="J8">
-        <v>1.01553029200494</v>
+        <v>1.026967031048733</v>
       </c>
       <c r="K8">
-        <v>1.027958412125705</v>
+        <v>1.035291702057167</v>
       </c>
       <c r="L8">
-        <v>1.012150047385413</v>
+        <v>1.025480723133316</v>
       </c>
       <c r="M8">
-        <v>1.028758355368717</v>
+        <v>1.043924703605722</v>
       </c>
       <c r="N8">
-        <v>1.009195545607423</v>
+        <v>1.013059984413955</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.983624543216474</v>
+        <v>1.019844158180194</v>
       </c>
       <c r="D9">
-        <v>1.008900298797911</v>
+        <v>1.030881697635309</v>
       </c>
       <c r="E9">
-        <v>0.9930291636793039</v>
+        <v>1.020975479554507</v>
       </c>
       <c r="F9">
-        <v>1.00750832151303</v>
+        <v>1.038997132615315</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041970134323057</v>
+        <v>1.030867270316939</v>
       </c>
       <c r="J9">
-        <v>1.009769115093067</v>
+        <v>1.025746502674897</v>
       </c>
       <c r="K9">
-        <v>1.021850606636448</v>
+        <v>1.034061062874545</v>
       </c>
       <c r="L9">
-        <v>1.00623635945385</v>
+        <v>1.024187861032249</v>
       </c>
       <c r="M9">
-        <v>1.020480744779535</v>
+        <v>1.042149964259018</v>
       </c>
       <c r="N9">
-        <v>1.007277100063366</v>
+        <v>1.01265520293103</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9765508325939233</v>
+        <v>1.018476175989034</v>
       </c>
       <c r="D10">
-        <v>1.00323378913552</v>
+        <v>1.029768238951514</v>
       </c>
       <c r="E10">
-        <v>0.9875036517014002</v>
+        <v>1.019821698244444</v>
       </c>
       <c r="F10">
-        <v>1.00031452911155</v>
+        <v>1.037525175894082</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039786934704392</v>
+        <v>1.030596598697321</v>
       </c>
       <c r="J10">
-        <v>1.005726720931837</v>
+        <v>1.024931345978082</v>
       </c>
       <c r="K10">
-        <v>1.017544900962769</v>
+        <v>1.033236251636873</v>
       </c>
       <c r="L10">
-        <v>1.002102257618172</v>
+        <v>1.023326113629685</v>
       </c>
       <c r="M10">
-        <v>1.014678106959379</v>
+        <v>1.040965334030676</v>
       </c>
       <c r="N10">
-        <v>1.0059308081661</v>
+        <v>1.012384725057726</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9734017505590968</v>
+        <v>1.017884241160452</v>
       </c>
       <c r="D11">
-        <v>1.000712235281315</v>
+        <v>1.029285900632457</v>
       </c>
       <c r="E11">
-        <v>0.9850533976922667</v>
+        <v>1.019322969923574</v>
       </c>
       <c r="F11">
-        <v>0.9971158088373053</v>
+        <v>1.036888230111256</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038797154990801</v>
+        <v>1.030477139945506</v>
       </c>
       <c r="J11">
-        <v>1.003924494588777</v>
+        <v>1.024578037931181</v>
       </c>
       <c r="K11">
-        <v>1.015620732376058</v>
+        <v>1.032878074245727</v>
       </c>
       <c r="L11">
-        <v>1.000262799036328</v>
+        <v>1.022953019402633</v>
       </c>
       <c r="M11">
-        <v>1.012092322522163</v>
+        <v>1.040452043970046</v>
       </c>
       <c r="N11">
-        <v>1.005330573875654</v>
+        <v>1.012267461876986</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.972218402189834</v>
+        <v>1.017664432949183</v>
       </c>
       <c r="D12">
-        <v>0.9997649321346272</v>
+        <v>1.029106709650961</v>
       </c>
       <c r="E12">
-        <v>0.9841341582344969</v>
+        <v>1.019137851679299</v>
       </c>
       <c r="F12">
-        <v>0.9959144261917701</v>
+        <v>1.036651704758743</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038422605083221</v>
+        <v>1.030432429414136</v>
       </c>
       <c r="J12">
-        <v>1.003246910882452</v>
+        <v>1.024446753530208</v>
       </c>
       <c r="K12">
-        <v>1.014896637059802</v>
+        <v>1.032744877836535</v>
       </c>
       <c r="L12">
-        <v>0.9995717687454185</v>
+        <v>1.022814443906262</v>
       </c>
       <c r="M12">
-        <v>1.011120320176196</v>
+        <v>1.04026133580071</v>
       </c>
       <c r="N12">
-        <v>1.005104903952226</v>
+        <v>1.012223883766336</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.972472863414145</v>
+        <v>1.017711579700388</v>
       </c>
       <c r="D13">
-        <v>0.9999686235185617</v>
+        <v>1.02914514801552</v>
       </c>
       <c r="E13">
-        <v>0.9843317576948363</v>
+        <v>1.019177554189765</v>
       </c>
       <c r="F13">
-        <v>0.9961727367249222</v>
+        <v>1.036702437300952</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038503263407829</v>
+        <v>1.030442035268937</v>
       </c>
       <c r="J13">
-        <v>1.003392630169824</v>
+        <v>1.024474916729356</v>
       </c>
       <c r="K13">
-        <v>1.015052388744594</v>
+        <v>1.032773455840427</v>
       </c>
       <c r="L13">
-        <v>0.9997203548479484</v>
+        <v>1.022844168427105</v>
       </c>
       <c r="M13">
-        <v>1.011329348477005</v>
+        <v>1.040302245564483</v>
       </c>
       <c r="N13">
-        <v>1.005153435844542</v>
+        <v>1.012233232379074</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9733042170698387</v>
+        <v>1.017866070459082</v>
       </c>
       <c r="D14">
-        <v>1.000634151793302</v>
+        <v>1.029271089234071</v>
       </c>
       <c r="E14">
-        <v>0.9849776014875065</v>
+        <v>1.019307665297487</v>
       </c>
       <c r="F14">
-        <v>0.9970167760949121</v>
+        <v>1.036868677524526</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038766336726</v>
+        <v>1.030473451054663</v>
       </c>
       <c r="J14">
-        <v>1.003868653914631</v>
+        <v>1.024567186937151</v>
       </c>
       <c r="K14">
-        <v>1.015561072016615</v>
+        <v>1.03286706731112</v>
       </c>
       <c r="L14">
-        <v>1.000205838981206</v>
+        <v>1.022941564533046</v>
       </c>
       <c r="M14">
-        <v>1.012012214832965</v>
+        <v>1.040436280973266</v>
       </c>
       <c r="N14">
-        <v>1.005311976060653</v>
+        <v>1.012263860130092</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9738146124077943</v>
+        <v>1.017961265659971</v>
       </c>
       <c r="D15">
-        <v>1.001042774808098</v>
+        <v>1.029348681970222</v>
       </c>
       <c r="E15">
-        <v>0.9853743068313874</v>
+        <v>1.019387848535065</v>
       </c>
       <c r="F15">
-        <v>0.9975350425503338</v>
+        <v>1.036971112224014</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038927503352168</v>
+        <v>1.030492762559817</v>
       </c>
       <c r="J15">
-        <v>1.00416085560693</v>
+        <v>1.024624031053489</v>
       </c>
       <c r="K15">
-        <v>1.015873234275411</v>
+        <v>1.032924724138553</v>
       </c>
       <c r="L15">
-        <v>1.000503920641248</v>
+        <v>1.023001574622215</v>
       </c>
       <c r="M15">
-        <v>1.012431407493249</v>
+        <v>1.04051885810685</v>
       </c>
       <c r="N15">
-        <v>1.005409294276487</v>
+        <v>1.012282728080825</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9767579536518046</v>
+        <v>1.018515469493865</v>
       </c>
       <c r="D16">
-        <v>1.003399664995826</v>
+        <v>1.029800246000744</v>
       </c>
       <c r="E16">
-        <v>0.9876650148853006</v>
+        <v>1.01985481558385</v>
       </c>
       <c r="F16">
-        <v>1.000524998282899</v>
+        <v>1.0375674568809</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039851667963655</v>
+        <v>1.030604479309062</v>
       </c>
       <c r="J16">
-        <v>1.005845205653038</v>
+        <v>1.024954786794792</v>
       </c>
       <c r="K16">
-        <v>1.017671309407346</v>
+        <v>1.033260001117516</v>
       </c>
       <c r="L16">
-        <v>1.00222326642938</v>
+        <v>1.023350875770777</v>
       </c>
       <c r="M16">
-        <v>1.014848130295533</v>
+        <v>1.040999392404692</v>
       </c>
       <c r="N16">
-        <v>1.005970269595765</v>
+        <v>1.012392504415792</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9785806976314536</v>
+        <v>1.018863217571</v>
       </c>
       <c r="D17">
-        <v>1.004859566051507</v>
+        <v>1.030083446801997</v>
       </c>
       <c r="E17">
-        <v>0.9890861725175494</v>
+        <v>1.020147964724395</v>
       </c>
       <c r="F17">
-        <v>1.002377647016012</v>
+        <v>1.037941641878063</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040419320059288</v>
+        <v>1.030673952754408</v>
       </c>
       <c r="J17">
-        <v>1.006887622104197</v>
+        <v>1.025162170855824</v>
       </c>
       <c r="K17">
-        <v>1.018782922619687</v>
+        <v>1.033470036928737</v>
       </c>
       <c r="L17">
-        <v>1.003288305519384</v>
+        <v>1.02356999679545</v>
       </c>
       <c r="M17">
-        <v>1.016344115505602</v>
+        <v>1.041300729472308</v>
       </c>
       <c r="N17">
-        <v>1.006317445822707</v>
+        <v>1.012461325785828</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9796356139584034</v>
+        <v>1.019066092675431</v>
       </c>
       <c r="D18">
-        <v>1.005704582741265</v>
+        <v>1.030248613316472</v>
       </c>
       <c r="E18">
-        <v>0.9899095766239026</v>
+        <v>1.020319037174903</v>
       </c>
       <c r="F18">
-        <v>1.003450230226588</v>
+        <v>1.038159938201945</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040746150117577</v>
+        <v>1.030714257704842</v>
       </c>
       <c r="J18">
-        <v>1.00749066999988</v>
+        <v>1.025283101616115</v>
       </c>
       <c r="K18">
-        <v>1.019425568851918</v>
+        <v>1.033592447932883</v>
       </c>
       <c r="L18">
-        <v>1.003904787101573</v>
+        <v>1.023697810948708</v>
       </c>
       <c r="M18">
-        <v>1.017209672785711</v>
+        <v>1.041476461649148</v>
       </c>
       <c r="N18">
-        <v>1.006518288989493</v>
+        <v>1.012501454162513</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9799939327265698</v>
+        <v>1.019135274516479</v>
       </c>
       <c r="D19">
-        <v>1.005991619995509</v>
+        <v>1.030304927438792</v>
       </c>
       <c r="E19">
-        <v>0.9901894105808776</v>
+        <v>1.02037738258088</v>
       </c>
       <c r="F19">
-        <v>1.003814609505853</v>
+        <v>1.038234378441942</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040856872734085</v>
+        <v>1.03072796369749</v>
       </c>
       <c r="J19">
-        <v>1.007695460502219</v>
+        <v>1.025324330277409</v>
       </c>
       <c r="K19">
-        <v>1.019643732712476</v>
+        <v>1.033634170037974</v>
       </c>
       <c r="L19">
-        <v>1.004114198247249</v>
+        <v>1.023741393013424</v>
       </c>
       <c r="M19">
-        <v>1.017503629273794</v>
+        <v>1.041536376204866</v>
       </c>
       <c r="N19">
-        <v>1.006586493459114</v>
+        <v>1.012515134522372</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9783859936724444</v>
+        <v>1.018825903396374</v>
       </c>
       <c r="D20">
-        <v>1.004703610146772</v>
+        <v>1.030053064065223</v>
       </c>
       <c r="E20">
-        <v>0.9889342711680935</v>
+        <v>1.020116503946851</v>
       </c>
       <c r="F20">
-        <v>1.002179711054193</v>
+        <v>1.037901491165167</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040358859792584</v>
+        <v>1.030666521427244</v>
       </c>
       <c r="J20">
-        <v>1.006776297953332</v>
+        <v>1.025139923899763</v>
       </c>
       <c r="K20">
-        <v>1.018664253410421</v>
+        <v>1.033447512339732</v>
       </c>
       <c r="L20">
-        <v>1.003174529451309</v>
+        <v>1.023546486702995</v>
       </c>
       <c r="M20">
-        <v>1.016184340849037</v>
+        <v>1.041268402223098</v>
       </c>
       <c r="N20">
-        <v>1.006280369523113</v>
+        <v>1.012453943345889</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9730597865158693</v>
+        <v>1.017820575040717</v>
       </c>
       <c r="D21">
-        <v>1.000438469314598</v>
+        <v>1.029234003474232</v>
       </c>
       <c r="E21">
-        <v>0.9847876716506057</v>
+        <v>1.019269347173012</v>
       </c>
       <c r="F21">
-        <v>0.996768598354574</v>
+        <v>1.036819722125713</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038689060595175</v>
+        <v>1.030464209219808</v>
       </c>
       <c r="J21">
-        <v>1.003728705026978</v>
+        <v>1.024540017034716</v>
       </c>
       <c r="K21">
-        <v>1.015411539519488</v>
+        <v>1.032839505290834</v>
       </c>
       <c r="L21">
-        <v>1.000063093576415</v>
+        <v>1.022912883569227</v>
       </c>
       <c r="M21">
-        <v>1.011811450335003</v>
+        <v>1.040396812239045</v>
       </c>
       <c r="N21">
-        <v>1.005265365902235</v>
+        <v>1.012254841607099</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9696316940732315</v>
+        <v>1.017188848725022</v>
       </c>
       <c r="D22">
-        <v>0.9976947190509441</v>
+        <v>1.028718860213365</v>
       </c>
       <c r="E22">
-        <v>0.982127615163142</v>
+        <v>1.018737468550462</v>
       </c>
       <c r="F22">
-        <v>0.9932894852550276</v>
+        <v>1.036139945848893</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037599137840338</v>
+        <v>1.030335050956752</v>
       </c>
       <c r="J22">
-        <v>1.001765170240704</v>
+        <v>1.024162542627776</v>
       </c>
       <c r="K22">
-        <v>1.013311982754527</v>
+        <v>1.03245634030274</v>
       </c>
       <c r="L22">
-        <v>0.9980616409849931</v>
+        <v>1.022514560755104</v>
       </c>
       <c r="M22">
-        <v>1.008995061272702</v>
+        <v>1.039848523925559</v>
       </c>
       <c r="N22">
-        <v>1.004611412436016</v>
+        <v>1.012129535128863</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9714567538078812</v>
+        <v>1.017523703983108</v>
       </c>
       <c r="D23">
-        <v>0.9991552874896681</v>
+        <v>1.028991962767866</v>
       </c>
       <c r="E23">
-        <v>0.9835429332311447</v>
+        <v>1.019019354711663</v>
       </c>
       <c r="F23">
-        <v>0.9951413503434089</v>
+        <v>1.036500272119675</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038180802387566</v>
+        <v>1.030403705411558</v>
       </c>
       <c r="J23">
-        <v>1.002810698814447</v>
+        <v>1.024362676030658</v>
       </c>
       <c r="K23">
-        <v>1.014430296921665</v>
+        <v>1.032659546984436</v>
       </c>
       <c r="L23">
-        <v>0.999127055911063</v>
+        <v>1.022725714244361</v>
       </c>
       <c r="M23">
-        <v>1.010494617279878</v>
+        <v>1.040139208526707</v>
       </c>
       <c r="N23">
-        <v>1.004959623535023</v>
+        <v>1.012195974032031</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9784739974835601</v>
+        <v>1.018842763943632</v>
       </c>
       <c r="D24">
-        <v>1.004774100017582</v>
+        <v>1.030066792777237</v>
       </c>
       <c r="E24">
-        <v>0.9890029259165197</v>
+        <v>1.020130719460112</v>
       </c>
       <c r="F24">
-        <v>1.002269174579994</v>
+        <v>1.037919633418881</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040386192369325</v>
+        <v>1.03066987999693</v>
       </c>
       <c r="J24">
-        <v>1.006826615895811</v>
+        <v>1.025149976443195</v>
       </c>
       <c r="K24">
-        <v>1.018717892624513</v>
+        <v>1.033457690538955</v>
       </c>
       <c r="L24">
-        <v>1.003225954574129</v>
+        <v>1.023557109887787</v>
       </c>
       <c r="M24">
-        <v>1.016256557811701</v>
+        <v>1.041283009616445</v>
       </c>
       <c r="N24">
-        <v>1.00629712782463</v>
+        <v>1.012457279195904</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9862952182963283</v>
+        <v>1.020375006538528</v>
       </c>
       <c r="D25">
-        <v>1.011040150082431</v>
+        <v>1.031313294023234</v>
       </c>
       <c r="E25">
-        <v>0.9951232271915226</v>
+        <v>1.021423667224527</v>
       </c>
       <c r="F25">
-        <v>1.01022736397421</v>
+        <v>1.039568308603529</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042778524569313</v>
+        <v>1.030970216772738</v>
       </c>
       <c r="J25">
-        <v>1.011292772267357</v>
+        <v>1.026062302306869</v>
       </c>
       <c r="K25">
-        <v>1.02346946573113</v>
+        <v>1.034379990831764</v>
       </c>
       <c r="L25">
-        <v>1.007797723475305</v>
+        <v>1.024522073411926</v>
       </c>
       <c r="M25">
-        <v>1.022668961113228</v>
+        <v>1.042609042067224</v>
       </c>
       <c r="N25">
-        <v>1.007784514086101</v>
+        <v>1.012759960180472</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_217/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_217/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.021598327441391</v>
+        <v>0.9922971365276504</v>
       </c>
       <c r="D2">
-        <v>1.032306816338145</v>
+        <v>1.015848976209218</v>
       </c>
       <c r="E2">
-        <v>1.02245750295812</v>
+        <v>0.9998455706705738</v>
       </c>
       <c r="F2">
-        <v>1.040884514804083</v>
+        <v>1.016343905444727</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.031202846778234</v>
+        <v>1.044559532753782</v>
       </c>
       <c r="J2">
-        <v>1.026788892010296</v>
+        <v>1.014710705457526</v>
       </c>
       <c r="K2">
-        <v>1.035112425782007</v>
+        <v>1.027091838566087</v>
       </c>
       <c r="L2">
-        <v>1.025291826926038</v>
+        <v>1.011307057357801</v>
       </c>
       <c r="M2">
-        <v>1.043665597723298</v>
+        <v>1.027580144402084</v>
       </c>
       <c r="N2">
-        <v>1.01300092151919</v>
+        <v>1.008922659178003</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.022487249434818</v>
+        <v>0.9965285427897098</v>
       </c>
       <c r="D3">
-        <v>1.03302777819261</v>
+        <v>1.019238294087627</v>
       </c>
       <c r="E3">
-        <v>1.023209632348831</v>
+        <v>1.003188772754874</v>
       </c>
       <c r="F3">
-        <v>1.041840884720024</v>
+        <v>1.02066096046491</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.031367730561927</v>
+        <v>1.045782344915313</v>
       </c>
       <c r="J3">
-        <v>1.027315817055318</v>
+        <v>1.017114292680139</v>
       </c>
       <c r="K3">
-        <v>1.035642367475331</v>
+        <v>1.029630795523121</v>
       </c>
       <c r="L3">
-        <v>1.025850775610291</v>
+        <v>1.013781014586318</v>
       </c>
       <c r="M3">
-        <v>1.044432098885888</v>
+        <v>1.031036133147111</v>
       </c>
       <c r="N3">
-        <v>1.013175609733828</v>
+        <v>1.009722907131778</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.023062751158941</v>
+        <v>0.9992111968661375</v>
       </c>
       <c r="D4">
-        <v>1.0334940837698</v>
+        <v>1.021386280974022</v>
       </c>
       <c r="E4">
-        <v>1.023696983382513</v>
+        <v>1.005314462839172</v>
       </c>
       <c r="F4">
-        <v>1.042460030013461</v>
+        <v>1.023399948806692</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.031472553555908</v>
+        <v>1.046542047613622</v>
       </c>
       <c r="J4">
-        <v>1.027656469080816</v>
+        <v>1.018635101853797</v>
       </c>
       <c r="K4">
-        <v>1.035984402235043</v>
+        <v>1.031233266536338</v>
       </c>
       <c r="L4">
-        <v>1.026212464552057</v>
+        <v>1.015349167370843</v>
       </c>
       <c r="M4">
-        <v>1.044927766986196</v>
+        <v>1.03322392755463</v>
       </c>
       <c r="N4">
-        <v>1.013288517074623</v>
+        <v>1.010229170661609</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.023304765068553</v>
+        <v>1.00032618053113</v>
       </c>
       <c r="D5">
-        <v>1.033690067995438</v>
+        <v>1.022278800630706</v>
       </c>
       <c r="E5">
-        <v>1.023902025385338</v>
+        <v>1.006199390865097</v>
       </c>
       <c r="F5">
-        <v>1.0427203914116</v>
+        <v>1.024538805483035</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.031516173172</v>
+        <v>1.046854017721055</v>
       </c>
       <c r="J5">
-        <v>1.027799605427286</v>
+        <v>1.019266432327314</v>
       </c>
       <c r="K5">
-        <v>1.03612798340788</v>
+        <v>1.031897523817717</v>
       </c>
       <c r="L5">
-        <v>1.026364520265464</v>
+        <v>1.016000828371618</v>
       </c>
       <c r="M5">
-        <v>1.045136070385026</v>
+        <v>1.03413241311063</v>
       </c>
       <c r="N5">
-        <v>1.013335952388048</v>
+        <v>1.010439315206332</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.023345404514697</v>
+        <v>1.000512652933855</v>
       </c>
       <c r="D6">
-        <v>1.033722971593913</v>
+        <v>1.022428051966055</v>
       </c>
       <c r="E6">
-        <v>1.023936462156957</v>
+        <v>1.006347471360421</v>
       </c>
       <c r="F6">
-        <v>1.042764111456446</v>
+        <v>1.024729296614444</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.031523470804728</v>
+        <v>1.046905968388057</v>
       </c>
       <c r="J6">
-        <v>1.027823634293306</v>
+        <v>1.019371971952528</v>
       </c>
       <c r="K6">
-        <v>1.036152078953427</v>
+        <v>1.032008510130229</v>
       </c>
       <c r="L6">
-        <v>1.026390051154402</v>
+        <v>1.016109806473842</v>
       </c>
       <c r="M6">
-        <v>1.045171040975883</v>
+        <v>1.034284300891794</v>
       </c>
       <c r="N6">
-        <v>1.013343915160878</v>
+        <v>1.010474443892923</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.023065984675335</v>
+        <v>0.9992261450679313</v>
       </c>
       <c r="D7">
-        <v>1.033496702721584</v>
+        <v>1.021398247699419</v>
       </c>
       <c r="E7">
-        <v>1.023699722538448</v>
+        <v>1.005326321153695</v>
       </c>
       <c r="F7">
-        <v>1.042463508691373</v>
+        <v>1.023415215290401</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.031473138164594</v>
+        <v>1.046546245102702</v>
       </c>
       <c r="J7">
-        <v>1.027658381966863</v>
+        <v>1.018643568923026</v>
       </c>
       <c r="K7">
-        <v>1.035986321601391</v>
+        <v>1.031242179070349</v>
       </c>
       <c r="L7">
-        <v>1.026214496322765</v>
+        <v>1.01535790442619</v>
       </c>
       <c r="M7">
-        <v>1.044930550644722</v>
+        <v>1.033236110602671</v>
       </c>
       <c r="N7">
-        <v>1.013289151029629</v>
+        <v>1.010231989088977</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.021898677950853</v>
+        <v>0.9937388962612336</v>
       </c>
       <c r="D8">
-        <v>1.032550510265555</v>
+        <v>1.01700394751141</v>
       </c>
       <c r="E8">
-        <v>1.022711548355516</v>
+        <v>1.000983380151876</v>
       </c>
       <c r="F8">
-        <v>1.041207659405782</v>
+        <v>1.017814403543536</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.031258956290477</v>
+        <v>1.044979405702698</v>
       </c>
       <c r="J8">
-        <v>1.026967031048733</v>
+        <v>1.015530292004941</v>
       </c>
       <c r="K8">
-        <v>1.035291702057167</v>
+        <v>1.027958412125705</v>
       </c>
       <c r="L8">
-        <v>1.025480723133316</v>
+        <v>1.012150047385413</v>
       </c>
       <c r="M8">
-        <v>1.043924703605722</v>
+        <v>1.028758355368717</v>
       </c>
       <c r="N8">
-        <v>1.013059984413955</v>
+        <v>1.009195545607423</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.019844158180194</v>
+        <v>0.9836245432164731</v>
       </c>
       <c r="D9">
-        <v>1.030881697635309</v>
+        <v>1.008900298797911</v>
       </c>
       <c r="E9">
-        <v>1.020975479554507</v>
+        <v>0.9930291636793035</v>
       </c>
       <c r="F9">
-        <v>1.038997132615315</v>
+        <v>1.007508321513029</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030867270316939</v>
+        <v>1.041970134323056</v>
       </c>
       <c r="J9">
-        <v>1.025746502674897</v>
+        <v>1.009769115093066</v>
       </c>
       <c r="K9">
-        <v>1.034061062874545</v>
+        <v>1.021850606636447</v>
       </c>
       <c r="L9">
-        <v>1.024187861032249</v>
+        <v>1.006236359453849</v>
       </c>
       <c r="M9">
-        <v>1.042149964259018</v>
+        <v>1.020480744779534</v>
       </c>
       <c r="N9">
-        <v>1.01265520293103</v>
+        <v>1.007277100063365</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.018476175989034</v>
+        <v>0.9765508325939235</v>
       </c>
       <c r="D10">
-        <v>1.029768238951514</v>
+        <v>1.00323378913552</v>
       </c>
       <c r="E10">
-        <v>1.019821698244444</v>
+        <v>0.9875036517014002</v>
       </c>
       <c r="F10">
-        <v>1.037525175894082</v>
+        <v>1.00031452911155</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030596598697321</v>
+        <v>1.039786934704392</v>
       </c>
       <c r="J10">
-        <v>1.024931345978082</v>
+        <v>1.005726720931837</v>
       </c>
       <c r="K10">
-        <v>1.033236251636873</v>
+        <v>1.017544900962769</v>
       </c>
       <c r="L10">
-        <v>1.023326113629685</v>
+        <v>1.002102257618172</v>
       </c>
       <c r="M10">
-        <v>1.040965334030676</v>
+        <v>1.014678106959379</v>
       </c>
       <c r="N10">
-        <v>1.012384725057726</v>
+        <v>1.0059308081661</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.017884241160452</v>
+        <v>0.9734017505590967</v>
       </c>
       <c r="D11">
-        <v>1.029285900632457</v>
+        <v>1.000712235281314</v>
       </c>
       <c r="E11">
-        <v>1.019322969923574</v>
+        <v>0.9850533976922667</v>
       </c>
       <c r="F11">
-        <v>1.036888230111256</v>
+        <v>0.9971158088373051</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030477139945506</v>
+        <v>1.038797154990801</v>
       </c>
       <c r="J11">
-        <v>1.024578037931181</v>
+        <v>1.003924494588777</v>
       </c>
       <c r="K11">
-        <v>1.032878074245727</v>
+        <v>1.015620732376058</v>
       </c>
       <c r="L11">
-        <v>1.022953019402633</v>
+        <v>1.000262799036328</v>
       </c>
       <c r="M11">
-        <v>1.040452043970046</v>
+        <v>1.012092322522163</v>
       </c>
       <c r="N11">
-        <v>1.012267461876986</v>
+        <v>1.005330573875654</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.017664432949183</v>
+        <v>0.9722184021898329</v>
       </c>
       <c r="D12">
-        <v>1.029106709650961</v>
+        <v>0.9997649321346262</v>
       </c>
       <c r="E12">
-        <v>1.019137851679299</v>
+        <v>0.9841341582344959</v>
       </c>
       <c r="F12">
-        <v>1.036651704758743</v>
+        <v>0.9959144261917691</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030432429414136</v>
+        <v>1.038422605083221</v>
       </c>
       <c r="J12">
-        <v>1.024446753530208</v>
+        <v>1.003246910882451</v>
       </c>
       <c r="K12">
-        <v>1.032744877836535</v>
+        <v>1.014896637059801</v>
       </c>
       <c r="L12">
-        <v>1.022814443906262</v>
+        <v>0.9995717687454174</v>
       </c>
       <c r="M12">
-        <v>1.04026133580071</v>
+        <v>1.011120320176194</v>
       </c>
       <c r="N12">
-        <v>1.012223883766336</v>
+        <v>1.005104903952225</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.017711579700388</v>
+        <v>0.9724728634141446</v>
       </c>
       <c r="D13">
-        <v>1.02914514801552</v>
+        <v>0.9999686235185615</v>
       </c>
       <c r="E13">
-        <v>1.019177554189765</v>
+        <v>0.9843317576948359</v>
       </c>
       <c r="F13">
-        <v>1.036702437300952</v>
+        <v>0.9961727367249222</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030442035268937</v>
+        <v>1.038503263407828</v>
       </c>
       <c r="J13">
-        <v>1.024474916729356</v>
+        <v>1.003392630169824</v>
       </c>
       <c r="K13">
-        <v>1.032773455840427</v>
+        <v>1.015052388744593</v>
       </c>
       <c r="L13">
-        <v>1.022844168427105</v>
+        <v>0.9997203548479481</v>
       </c>
       <c r="M13">
-        <v>1.040302245564483</v>
+        <v>1.011329348477005</v>
       </c>
       <c r="N13">
-        <v>1.012233232379074</v>
+        <v>1.005153435844542</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.017866070459082</v>
+        <v>0.9733042170698382</v>
       </c>
       <c r="D14">
-        <v>1.029271089234071</v>
+        <v>1.000634151793301</v>
       </c>
       <c r="E14">
-        <v>1.019307665297487</v>
+        <v>0.9849776014875059</v>
       </c>
       <c r="F14">
-        <v>1.036868677524526</v>
+        <v>0.9970167760949117</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030473451054663</v>
+        <v>1.038766336726</v>
       </c>
       <c r="J14">
-        <v>1.024567186937151</v>
+        <v>1.00386865391463</v>
       </c>
       <c r="K14">
-        <v>1.03286706731112</v>
+        <v>1.015561072016614</v>
       </c>
       <c r="L14">
-        <v>1.022941564533046</v>
+        <v>1.000205838981206</v>
       </c>
       <c r="M14">
-        <v>1.040436280973266</v>
+        <v>1.012012214832965</v>
       </c>
       <c r="N14">
-        <v>1.012263860130092</v>
+        <v>1.005311976060653</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.017961265659971</v>
+        <v>0.9738146124077939</v>
       </c>
       <c r="D15">
-        <v>1.029348681970222</v>
+        <v>1.001042774808098</v>
       </c>
       <c r="E15">
-        <v>1.019387848535065</v>
+        <v>0.9853743068313869</v>
       </c>
       <c r="F15">
-        <v>1.036971112224014</v>
+        <v>0.9975350425503334</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030492762559817</v>
+        <v>1.038927503352168</v>
       </c>
       <c r="J15">
-        <v>1.024624031053489</v>
+        <v>1.004160855606929</v>
       </c>
       <c r="K15">
-        <v>1.032924724138553</v>
+        <v>1.015873234275411</v>
       </c>
       <c r="L15">
-        <v>1.023001574622215</v>
+        <v>1.000503920641248</v>
       </c>
       <c r="M15">
-        <v>1.04051885810685</v>
+        <v>1.012431407493249</v>
       </c>
       <c r="N15">
-        <v>1.012282728080825</v>
+        <v>1.005409294276486</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.018515469493865</v>
+        <v>0.9767579536518048</v>
       </c>
       <c r="D16">
-        <v>1.029800246000744</v>
+        <v>1.003399664995826</v>
       </c>
       <c r="E16">
-        <v>1.01985481558385</v>
+        <v>0.9876650148853006</v>
       </c>
       <c r="F16">
-        <v>1.0375674568809</v>
+        <v>1.000524998282899</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030604479309062</v>
+        <v>1.039851667963655</v>
       </c>
       <c r="J16">
-        <v>1.024954786794792</v>
+        <v>1.005845205653039</v>
       </c>
       <c r="K16">
-        <v>1.033260001117516</v>
+        <v>1.017671309407346</v>
       </c>
       <c r="L16">
-        <v>1.023350875770777</v>
+        <v>1.002223266429381</v>
       </c>
       <c r="M16">
-        <v>1.040999392404692</v>
+        <v>1.014848130295533</v>
       </c>
       <c r="N16">
-        <v>1.012392504415792</v>
+        <v>1.005970269595765</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.018863217571</v>
+        <v>0.9785806976314537</v>
       </c>
       <c r="D17">
-        <v>1.030083446801997</v>
+        <v>1.004859566051507</v>
       </c>
       <c r="E17">
-        <v>1.020147964724395</v>
+        <v>0.9890861725175495</v>
       </c>
       <c r="F17">
-        <v>1.037941641878063</v>
+        <v>1.002377647016012</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030673952754408</v>
+        <v>1.040419320059288</v>
       </c>
       <c r="J17">
-        <v>1.025162170855824</v>
+        <v>1.006887622104197</v>
       </c>
       <c r="K17">
-        <v>1.033470036928737</v>
+        <v>1.018782922619687</v>
       </c>
       <c r="L17">
-        <v>1.02356999679545</v>
+        <v>1.003288305519384</v>
       </c>
       <c r="M17">
-        <v>1.041300729472308</v>
+        <v>1.016344115505602</v>
       </c>
       <c r="N17">
-        <v>1.012461325785828</v>
+        <v>1.006317445822707</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.019066092675431</v>
+        <v>0.9796356139584032</v>
       </c>
       <c r="D18">
-        <v>1.030248613316472</v>
+        <v>1.005704582741265</v>
       </c>
       <c r="E18">
-        <v>1.020319037174903</v>
+        <v>0.9899095766239022</v>
       </c>
       <c r="F18">
-        <v>1.038159938201945</v>
+        <v>1.003450230226588</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030714257704842</v>
+        <v>1.040746150117577</v>
       </c>
       <c r="J18">
-        <v>1.025283101616115</v>
+        <v>1.00749066999988</v>
       </c>
       <c r="K18">
-        <v>1.033592447932883</v>
+        <v>1.019425568851918</v>
       </c>
       <c r="L18">
-        <v>1.023697810948708</v>
+        <v>1.003904787101573</v>
       </c>
       <c r="M18">
-        <v>1.041476461649148</v>
+        <v>1.017209672785711</v>
       </c>
       <c r="N18">
-        <v>1.012501454162513</v>
+        <v>1.006518288989493</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.019135274516479</v>
+        <v>0.97999393272657</v>
       </c>
       <c r="D19">
-        <v>1.030304927438792</v>
+        <v>1.005991619995509</v>
       </c>
       <c r="E19">
-        <v>1.02037738258088</v>
+        <v>0.9901894105808779</v>
       </c>
       <c r="F19">
-        <v>1.038234378441942</v>
+        <v>1.003814609505853</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03072796369749</v>
+        <v>1.040856872734085</v>
       </c>
       <c r="J19">
-        <v>1.025324330277409</v>
+        <v>1.007695460502219</v>
       </c>
       <c r="K19">
-        <v>1.033634170037974</v>
+        <v>1.019643732712476</v>
       </c>
       <c r="L19">
-        <v>1.023741393013424</v>
+        <v>1.004114198247249</v>
       </c>
       <c r="M19">
-        <v>1.041536376204866</v>
+        <v>1.017503629273794</v>
       </c>
       <c r="N19">
-        <v>1.012515134522372</v>
+        <v>1.006586493459114</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.018825903396374</v>
+        <v>0.9783859936724449</v>
       </c>
       <c r="D20">
-        <v>1.030053064065223</v>
+        <v>1.004703610146772</v>
       </c>
       <c r="E20">
-        <v>1.020116503946851</v>
+        <v>0.9889342711680941</v>
       </c>
       <c r="F20">
-        <v>1.037901491165167</v>
+        <v>1.002179711054195</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030666521427244</v>
+        <v>1.040358859792584</v>
       </c>
       <c r="J20">
-        <v>1.025139923899763</v>
+        <v>1.006776297953332</v>
       </c>
       <c r="K20">
-        <v>1.033447512339732</v>
+        <v>1.018664253410421</v>
       </c>
       <c r="L20">
-        <v>1.023546486702995</v>
+        <v>1.00317452945131</v>
       </c>
       <c r="M20">
-        <v>1.041268402223098</v>
+        <v>1.016184340849039</v>
       </c>
       <c r="N20">
-        <v>1.012453943345889</v>
+        <v>1.006280369523113</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.017820575040717</v>
+        <v>0.9730597865158699</v>
       </c>
       <c r="D21">
-        <v>1.029234003474232</v>
+        <v>1.000438469314598</v>
       </c>
       <c r="E21">
-        <v>1.019269347173012</v>
+        <v>0.984787671650606</v>
       </c>
       <c r="F21">
-        <v>1.036819722125713</v>
+        <v>0.9967685983545749</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030464209219808</v>
+        <v>1.038689060595176</v>
       </c>
       <c r="J21">
-        <v>1.024540017034716</v>
+        <v>1.003728705026978</v>
       </c>
       <c r="K21">
-        <v>1.032839505290834</v>
+        <v>1.015411539519488</v>
       </c>
       <c r="L21">
-        <v>1.022912883569227</v>
+        <v>1.000063093576416</v>
       </c>
       <c r="M21">
-        <v>1.040396812239045</v>
+        <v>1.011811450335004</v>
       </c>
       <c r="N21">
-        <v>1.012254841607099</v>
+        <v>1.005265365902235</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.017188848725022</v>
+        <v>0.9696316940732309</v>
       </c>
       <c r="D22">
-        <v>1.028718860213365</v>
+        <v>0.9976947190509439</v>
       </c>
       <c r="E22">
-        <v>1.018737468550462</v>
+        <v>0.9821276151631415</v>
       </c>
       <c r="F22">
-        <v>1.036139945848893</v>
+        <v>0.9932894852550275</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030335050956752</v>
+        <v>1.037599137840338</v>
       </c>
       <c r="J22">
-        <v>1.024162542627776</v>
+        <v>1.001765170240703</v>
       </c>
       <c r="K22">
-        <v>1.03245634030274</v>
+        <v>1.013311982754527</v>
       </c>
       <c r="L22">
-        <v>1.022514560755104</v>
+        <v>0.9980616409849926</v>
       </c>
       <c r="M22">
-        <v>1.039848523925559</v>
+        <v>1.008995061272702</v>
       </c>
       <c r="N22">
-        <v>1.012129535128863</v>
+        <v>1.004611412436016</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.017523703983108</v>
+        <v>0.9714567538078807</v>
       </c>
       <c r="D23">
-        <v>1.028991962767866</v>
+        <v>0.9991552874896673</v>
       </c>
       <c r="E23">
-        <v>1.019019354711663</v>
+        <v>0.9835429332311441</v>
       </c>
       <c r="F23">
-        <v>1.036500272119675</v>
+        <v>0.9951413503434081</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030403705411558</v>
+        <v>1.038180802387565</v>
       </c>
       <c r="J23">
-        <v>1.024362676030658</v>
+        <v>1.002810698814446</v>
       </c>
       <c r="K23">
-        <v>1.032659546984436</v>
+        <v>1.014430296921665</v>
       </c>
       <c r="L23">
-        <v>1.022725714244361</v>
+        <v>0.9991270559110623</v>
       </c>
       <c r="M23">
-        <v>1.040139208526707</v>
+        <v>1.010494617279878</v>
       </c>
       <c r="N23">
-        <v>1.012195974032031</v>
+        <v>1.004959623535023</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.018842763943632</v>
+        <v>0.97847399748356</v>
       </c>
       <c r="D24">
-        <v>1.030066792777237</v>
+        <v>1.004774100017582</v>
       </c>
       <c r="E24">
-        <v>1.020130719460112</v>
+        <v>0.9890029259165196</v>
       </c>
       <c r="F24">
-        <v>1.037919633418881</v>
+        <v>1.002269174579994</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03066987999693</v>
+        <v>1.040386192369325</v>
       </c>
       <c r="J24">
-        <v>1.025149976443195</v>
+        <v>1.006826615895811</v>
       </c>
       <c r="K24">
-        <v>1.033457690538955</v>
+        <v>1.018717892624513</v>
       </c>
       <c r="L24">
-        <v>1.023557109887787</v>
+        <v>1.003225954574129</v>
       </c>
       <c r="M24">
-        <v>1.041283009616445</v>
+        <v>1.016256557811701</v>
       </c>
       <c r="N24">
-        <v>1.012457279195904</v>
+        <v>1.00629712782463</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.020375006538528</v>
+        <v>0.9862952182963285</v>
       </c>
       <c r="D25">
-        <v>1.031313294023234</v>
+        <v>1.011040150082431</v>
       </c>
       <c r="E25">
-        <v>1.021423667224527</v>
+        <v>0.9951232271915227</v>
       </c>
       <c r="F25">
-        <v>1.039568308603529</v>
+        <v>1.01022736397421</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030970216772738</v>
+        <v>1.042778524569313</v>
       </c>
       <c r="J25">
-        <v>1.026062302306869</v>
+        <v>1.011292772267357</v>
       </c>
       <c r="K25">
-        <v>1.034379990831764</v>
+        <v>1.02346946573113</v>
       </c>
       <c r="L25">
-        <v>1.024522073411926</v>
+        <v>1.007797723475305</v>
       </c>
       <c r="M25">
-        <v>1.042609042067224</v>
+        <v>1.022668961113229</v>
       </c>
       <c r="N25">
-        <v>1.012759960180472</v>
+        <v>1.007784514086101</v>
       </c>
     </row>
   </sheetData>
